--- a/ANN/Data3/Optimised_Networks/Predictions/2 HL Manual/2_10-10_50_0.0008_50 predictions_manual_offline 5 BEST.xlsx
+++ b/ANN/Data3/Optimised_Networks/Predictions/2 HL Manual/2_10-10_50_0.0008_50 predictions_manual_offline 5 BEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN\Data3\Optimised_Networks\Predictions\2 HL Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C898F116-92FF-4CA4-869A-1EAB7BF8F17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A964A0BC-4343-496F-AC38-6FFD3753E1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,6 +72,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8743,302 +8744,68 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>7.6999999999999999E-2</v>
-          </cell>
-          <cell r="C2">
-            <v>2649.39</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
           <cell r="I2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>7.6999999999999999E-2</v>
-          </cell>
-          <cell r="K2">
-            <v>2649.39</v>
-          </cell>
-          <cell r="L2">
             <v>0</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3">
-            <v>0.30860526959670009</v>
-          </cell>
-          <cell r="C3">
-            <v>2770.4299947977952</v>
-          </cell>
-          <cell r="D3">
-            <v>0.64811800233429451</v>
-          </cell>
           <cell r="I3">
             <v>12</v>
           </cell>
-          <cell r="J3">
-            <v>0.38109999999999999</v>
-          </cell>
-          <cell r="K3">
-            <v>2697.95</v>
-          </cell>
-          <cell r="L3">
-            <v>0.77</v>
-          </cell>
         </row>
         <row r="4">
-          <cell r="B4">
-            <v>0.61754615317644312</v>
-          </cell>
-          <cell r="C4">
-            <v>2402.2587531261511</v>
-          </cell>
-          <cell r="D4">
-            <v>1.201187750446042</v>
-          </cell>
           <cell r="I4">
             <v>24</v>
           </cell>
-          <cell r="J4">
-            <v>0.68759999999999999</v>
-          </cell>
-          <cell r="K4">
-            <v>2418.3200000000002</v>
-          </cell>
-          <cell r="L4">
-            <v>1.35</v>
-          </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>0.89618329567483634</v>
-          </cell>
-          <cell r="C5">
-            <v>2098.4138815279448</v>
-          </cell>
-          <cell r="D5">
-            <v>1.7247843342147731</v>
-          </cell>
           <cell r="I5">
             <v>36</v>
           </cell>
-          <cell r="J5">
-            <v>0.98209999999999997</v>
-          </cell>
-          <cell r="K5">
-            <v>2332.4499999999998</v>
-          </cell>
-          <cell r="L5">
-            <v>1.93</v>
-          </cell>
         </row>
         <row r="6">
-          <cell r="B6">
-            <v>1.207602989799514</v>
-          </cell>
-          <cell r="C6">
-            <v>2338.4300366268558</v>
-          </cell>
-          <cell r="D6">
-            <v>2.1419190613852619</v>
-          </cell>
           <cell r="I6">
             <v>48</v>
           </cell>
-          <cell r="J6">
-            <v>1.2837000000000001</v>
-          </cell>
-          <cell r="K6">
-            <v>2600.84</v>
-          </cell>
-          <cell r="L6">
-            <v>2.35</v>
-          </cell>
         </row>
         <row r="7">
-          <cell r="B7">
-            <v>1.452904747345602</v>
-          </cell>
-          <cell r="C7">
-            <v>1992.4896546810489</v>
-          </cell>
-          <cell r="D7">
-            <v>2.5574283322394331</v>
-          </cell>
           <cell r="I7">
             <v>60</v>
           </cell>
-          <cell r="J7">
-            <v>1.4993000000000001</v>
-          </cell>
-          <cell r="K7">
-            <v>2349.98</v>
-          </cell>
-          <cell r="L7">
-            <v>2.83</v>
-          </cell>
         </row>
         <row r="8">
-          <cell r="B8">
-            <v>1.658494186185872</v>
-          </cell>
-          <cell r="C8">
-            <v>3408.188196042875</v>
-          </cell>
-          <cell r="D8">
-            <v>2.8860808415932442</v>
-          </cell>
           <cell r="I8">
             <v>72</v>
           </cell>
-          <cell r="J8">
-            <v>1.6791</v>
-          </cell>
-          <cell r="K8">
-            <v>3456.13</v>
-          </cell>
-          <cell r="L8">
-            <v>3.11</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="B9">
-            <v>1.862056845180261</v>
-          </cell>
-          <cell r="C9">
-            <v>6360.0981374093481</v>
-          </cell>
-          <cell r="D9">
-            <v>3.2689881534353531</v>
-          </cell>
           <cell r="I9">
             <v>84</v>
           </cell>
-          <cell r="J9">
-            <v>1.9052</v>
-          </cell>
-          <cell r="K9">
-            <v>6389.51</v>
-          </cell>
-          <cell r="L9">
-            <v>3.45</v>
-          </cell>
         </row>
         <row r="10">
-          <cell r="B10">
-            <v>2.0235050958421992</v>
-          </cell>
-          <cell r="C10">
-            <v>8359.7460554925492</v>
-          </cell>
-          <cell r="D10">
-            <v>3.6067640551293421</v>
-          </cell>
           <cell r="I10">
             <v>96</v>
           </cell>
-          <cell r="J10">
-            <v>2.1707999999999998</v>
-          </cell>
-          <cell r="K10">
-            <v>8332.61</v>
-          </cell>
-          <cell r="L10">
-            <v>3.68</v>
-          </cell>
         </row>
         <row r="11">
-          <cell r="B11">
-            <v>2.2370360011003441</v>
-          </cell>
-          <cell r="C11">
-            <v>10755.890231183879</v>
-          </cell>
-          <cell r="D11">
-            <v>3.786125194615324</v>
-          </cell>
           <cell r="I11">
             <v>108</v>
           </cell>
-          <cell r="J11">
-            <v>2.3233000000000001</v>
-          </cell>
-          <cell r="K11">
-            <v>10569.2</v>
-          </cell>
-          <cell r="L11">
-            <v>3.98</v>
-          </cell>
         </row>
         <row r="12">
-          <cell r="B12">
-            <v>2.3971714824157488</v>
-          </cell>
-          <cell r="C12">
-            <v>12749.315315879079</v>
-          </cell>
-          <cell r="D12">
-            <v>4.0423666050186986</v>
-          </cell>
           <cell r="I12">
             <v>120</v>
           </cell>
-          <cell r="J12">
-            <v>2.4824999999999999</v>
-          </cell>
-          <cell r="K12">
-            <v>11934.88</v>
-          </cell>
-          <cell r="L12">
-            <v>4.18</v>
-          </cell>
         </row>
         <row r="13">
-          <cell r="B13">
-            <v>2.528390620968231</v>
-          </cell>
-          <cell r="C13">
-            <v>14149.084742723009</v>
-          </cell>
-          <cell r="D13">
-            <v>4.245585703596964</v>
-          </cell>
           <cell r="I13">
             <v>132</v>
           </cell>
-          <cell r="J13">
-            <v>2.6442000000000001</v>
-          </cell>
-          <cell r="K13">
-            <v>13419.53</v>
-          </cell>
-          <cell r="L13">
-            <v>4.42</v>
-          </cell>
         </row>
         <row r="14">
-          <cell r="B14">
-            <v>2.6547231673089162</v>
-          </cell>
-          <cell r="C14">
-            <v>16271.477705736341</v>
-          </cell>
-          <cell r="D14">
-            <v>4.3921565451839584</v>
-          </cell>
           <cell r="I14">
             <v>144</v>
-          </cell>
-          <cell r="J14">
-            <v>2.7401</v>
-          </cell>
-          <cell r="K14">
-            <v>15082.08</v>
-          </cell>
-          <cell r="L14">
-            <v>4.62</v>
           </cell>
         </row>
       </sheetData>
@@ -9334,8 +9101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BI77" sqref="BI77"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
